--- a/resources/templates/template_patch_advisor.xlsx
+++ b/resources/templates/template_patch_advisor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DECD74-94CF-4F55-8729-AE3AC481B46E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AAB7B3-5F32-4CEA-97AC-2407CE1A03DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D240BED0-6A7B-40CD-AE21-E8260BBFFA1A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D240BED0-6A7B-40CD-AE21-E8260BBFFA1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Patch_Advisor" sheetId="1" r:id="rId1"/>
@@ -58,31 +58,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
       <b/>
@@ -127,20 +109,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -156,7 +132,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -452,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028B8478-C483-45ED-9F57-31771190DDC1}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -469,40 +445,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
